--- a/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.897173077756261</v>
+        <v>-8.504638218432071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.44474440774552</v>
+        <v>-11.96634762965944</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.054233311141671</v>
+        <v>7.346108487393502</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.253801572847823</v>
+        <v>3.397086599243177</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3346752018389724</v>
+        <v>-0.3144952605112867</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4195484451705578</v>
+        <v>-0.4263235787839343</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4412779955902543</v>
+        <v>0.3923580632169163</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1785373397063746</v>
+        <v>0.1801728995965751</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.91778851294394</v>
+        <v>-13.03773049702562</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.074108156614742</v>
+        <v>-1.184168216186402</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.092084598324939</v>
+        <v>-1.683362653802259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.32537855141335</v>
+        <v>10.93039542231733</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5328330491748343</v>
+        <v>-0.5156272931500064</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07588533250144769</v>
+        <v>-0.0438358220612251</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1465583799563432</v>
+        <v>-0.0907563392524391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5310720985046319</v>
+        <v>0.57865433899006</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-21.96292751151935</v>
+        <v>-22.14369811267966</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.48387814005311</v>
+        <v>-11.80691438786663</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.01761401159976</v>
+        <v>-10.21965596749021</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.706781266759361</v>
+        <v>2.10678853964978</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8596672185360461</v>
+        <v>-0.856428084526166</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4583092893656244</v>
+        <v>-0.4636648436749375</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.5744803738364377</v>
+        <v>-0.573953301312309</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1137605430299792</v>
+        <v>0.1238098094053219</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-23.76487131719717</v>
+        <v>-23.76186580243131</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.05341882449829</v>
+        <v>-14.77293178862842</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.754065678480149</v>
+        <v>-9.490133667993113</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5270151991065136</v>
+        <v>0.2123067725488356</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7029134267605625</v>
+        <v>-0.7003174813163316</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4137158915050004</v>
+        <v>-0.4223205937272844</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3740261297410518</v>
+        <v>-0.3598729586339361</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02234029082299838</v>
+        <v>0.0075459043216885</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-25.50622192145117</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-9.877602511742129</v>
+        <v>-9.877602511742122</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-33.86459086744838</v>
+        <v>-33.43388068235073</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-18.78203607218907</v>
+        <v>-18.36587760797771</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-18.14615770835681</v>
+        <v>-18.52126045753386</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.405936301037129</v>
+        <v>-1.764178448175233</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.8740255331872504</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.3384772871703278</v>
+        <v>-0.3384772871703277</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9475154115282868</v>
+        <v>-0.9479338450709119</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5296822723554705</v>
+        <v>-0.5239254148683966</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.7351341499992541</v>
+        <v>-0.7306277049332809</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.0505534742574074</v>
+        <v>-0.05827752678703841</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.67827014360758</v>
+        <v>-11.60601091323658</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.26113064366509</v>
+        <v>-11.96049632825658</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.07856532158394</v>
+        <v>5.121321090646352</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.798972015122822</v>
+        <v>3.344911429783084</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4304205544943936</v>
+        <v>-0.4489399758004488</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4546911374140007</v>
+        <v>-0.4890386429960021</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.289872318278006</v>
+        <v>0.3244909853245979</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2503139222213613</v>
+        <v>0.2031379230650883</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.161252670464714</v>
+        <v>-6.243065506018982</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>13.64389309372735</v>
+        <v>13.37847000679419</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.743818851085529</v>
+        <v>4.752098378594695</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.51194009569553</v>
+        <v>25.06785373282393</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2276553740908579</v>
+        <v>-0.2252476252605787</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4822548086398699</v>
+        <v>0.4944766677438044</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2329290055761171</v>
+        <v>0.2241772209772166</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.183614053515165</v>
+        <v>1.224741424459589</v>
       </c>
     </row>
     <row r="46">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-12.68547077248189</v>
+        <v>-12.61974183707427</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-15.26757079111069</v>
+        <v>-15.52187864991224</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-3.917113404699305</v>
+        <v>-3.945593328042715</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.354053490943127</v>
+        <v>-6.62577165156276</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         <v>-0.3720290268608613</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.4848830285223845</v>
+        <v>-0.4848830285223846</v>
       </c>
     </row>
     <row r="50">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5066371700802632</v>
+        <v>-0.5020719322051118</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6160451922883119</v>
+        <v>-0.6237536483671456</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.200758418209241</v>
+        <v>-0.1936582787987349</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3161513454001363</v>
+        <v>-0.3233005392754979</v>
       </c>
     </row>
     <row r="52">
@@ -1276,7 +1276,7 @@
         <v>-8.460633953738398</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.3722218786208847</v>
+        <v>0.3722218786208792</v>
       </c>
     </row>
     <row r="53">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-10.61823414970163</v>
+        <v>-10.79536720603247</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.846658763170548</v>
+        <v>-2.069763759739547</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-6.231247164710927</v>
+        <v>-6.399391663767126</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.656709098766043</v>
+        <v>2.543356158869978</v>
       </c>
     </row>
     <row r="55">
@@ -1318,7 +1318,7 @@
         <v>-0.3535656621119032</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.01555496617472488</v>
+        <v>0.01555496617472465</v>
       </c>
     </row>
     <row r="56">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4200800155315095</v>
+        <v>-0.4302125639174999</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.07387861227390494</v>
+        <v>-0.0824915021176444</v>
       </c>
     </row>
     <row r="57">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.2651224113053677</v>
+        <v>-0.2767382586526111</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1178790256051162</v>
+        <v>0.1124523821698222</v>
       </c>
     </row>
     <row r="58">
